--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1245" windowWidth="14175" windowHeight="7815" tabRatio="831"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="831" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info!" sheetId="8" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <author>ubrezova</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
     <author>bbargero</author>
   </authors>
   <commentList>
-    <comment ref="D132" authorId="0">
+    <comment ref="D132" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="2823">
   <si>
     <t>Ext_System</t>
   </si>
@@ -9064,8 +9069,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43" x14ac:knownFonts="1">
     <font>
@@ -9787,9 +9792,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -10451,6 +10456,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -10670,7 +10678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10705,7 +10713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10916,7 +10924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14084,7 +14092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ501"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14332,7 +14342,9 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="58" t="s">
+        <v>1688</v>
+      </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
